--- a/biology/Histoire de la zoologie et de la botanique/Albert_Koebele/Albert_Koebele.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Koebele/Albert_Koebele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Koebele est un entomologiste américain d’origine allemande, né le 28 février 1853 à Siensbach sur Breisgau et mort le 28 décembre 1924 à Waldkirch.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît que fort peu de choses sur sa jeunesse. Il vient assez jeune aux États-Unis et est naturalisé citoyen américain en 1880. La même année, il devient membre de la Société entomologique de Brooklyn (en). Il y rencontre Charles Valentine Riley (1843-1895) qui, impressionné par les connaissances entomologiques du jeune homme, l’engage durant l’hiver 1881 dans son service au sein du ministère américain de l’agriculture. Koebele travaille alors sur le Alabama argillacea (Hübner, 1823), un ravageur du coton en Géorgie et en Floride. Durant l’hiver 1882-1883, il accompagne John Casper Branner (en) (1850-1922) dans une expédition au Brésil où il récolte du matériel entomologique durant quatre mois.
 À sa demande, il est transféré en Californie en 1855 et établit ses quartiers généraux à Alameda où il demeure durant trois ans. Koebele fait d’importantes récoltes, étudie les mœurs des insectes nuisibles ainsi que les insecticides. En 1886, il est le premier à proposer l’utilisation de résine contre la cochenille australienne (Icerya purchasi (Maskell, 1876)) alors que celle-ci ravageait la plantation de citronniers dans le sud de la Californie. Il expérimente également d’autres insecticides contre Hemiberlesia camelliae (en) (Signoret, 1869), la cochenille virgule du pommier (Lepidosaphes ulmi (Linnaeus, 1758)) et le puceron lanigère du pommier (Eriosoma lanigerum (Hausmann, 1802)).
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Edward Oliver Essig (1931). A History of Entomology. Mac Millan (New York) : vii + 1029 p.</t>
         </is>
